--- a/production_recipe_management_tool_v1.1/data/Recipes/20_pieces_Basa Fish Fry 50 GM Filet.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes/20_pieces_Basa Fish Fry 50 GM Filet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Desktop\Recipe_Builder_Project\recipe_scaler\Recipes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\Recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA00A4C-8F2B-48F2-85FF-4E8BDBF7AA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B94EE5-2B47-4A98-9455-45D16446D017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,12 +795,12 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <f>350/1000</f>
-        <v>0.35</v>
+        <f>280/1000</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E18" s="2">
         <f>B18*D18</f>
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="F18" s="2"/>
     </row>

--- a/production_recipe_management_tool_v1.1/data/Recipes/20_pieces_Basa Fish Fry 50 GM Filet.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes/20_pieces_Basa Fish Fry 50 GM Filet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deborshi\Documents\GitHub\production_recipe_management_tool\production_recipe_management_tool_v1.1\data\Recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B94EE5-2B47-4A98-9455-45D16446D017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC62F1-1983-4957-B401-FAB44C2C4B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Ingredients</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Vinegar</t>
-  </si>
-  <si>
-    <t>Gondhoraj</t>
   </si>
   <si>
     <t>Basa Fillet</t>
@@ -461,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,8 +469,7 @@
     <col min="1" max="1" width="20.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="19.36328125" style="3"/>
   </cols>
@@ -507,11 +503,11 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E17" si="0">B2*D2</f>
-        <v>5.6000000000000005</v>
+        <f t="shared" ref="E2:E16" si="0">B2*D2</f>
+        <v>5</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -524,11 +520,11 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -698,116 +694,99 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>10</v>
+        <f>130/50</f>
+        <v>2.6</v>
       </c>
       <c r="E13" s="2">
-        <f>D13*C13</f>
-        <v>10</v>
-      </c>
-      <c r="F13" s="2"/>
+        <f>B13*D13</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <f>130/50</f>
-        <v>2.6</v>
+        <f>100/850</f>
+        <v>0.11764705882352941</v>
       </c>
       <c r="E14" s="2">
-        <f>B14*D14</f>
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>9.4117647058823533</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2">
-        <v>80</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
       <c r="D15" s="2">
-        <f>100/850</f>
-        <v>0.11764705882352941</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>9.4117647058823533</v>
+        <f>C15*D15</f>
+        <v>56</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2">
-        <v>8</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>500</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>7</v>
+        <f>120/1000</f>
+        <v>0.12</v>
       </c>
       <c r="E16" s="2">
-        <f>C16*D16</f>
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <f>120/1000</f>
-        <v>0.12</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
         <f>280/1000</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="E18" s="2">
-        <f>B18*D18</f>
+      <c r="E17" s="2">
+        <f>B17*D17</f>
         <v>280</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E11:E13 E16" formula="1"/>
+    <ignoredError sqref="E11:E12 E15" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>